--- a/Test_SearchSpaceUI.xlsx
+++ b/Test_SearchSpaceUI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ale_v\Desktop\IReNE-searchspace-ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C02BBBCF-17E4-41D6-9562-D749B0BF54B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CB72EC-2125-41AA-9966-E22345D2D830}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="131">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -444,6 +444,27 @@
   </si>
   <si>
     <t>Check Document Table component and documents componen under Modules/ Documents or SearchSpace service under shared/servcies</t>
+  </si>
+  <si>
+    <t>Check the routes on app-routing module</t>
+  </si>
+  <si>
+    <t>Sidenav</t>
+  </si>
+  <si>
+    <t>Check Home component and html and Search component under /modules/home</t>
+  </si>
+  <si>
+    <t>Check Home HTML</t>
+  </si>
+  <si>
+    <t>Check the header HTML on shared/components/header</t>
+  </si>
+  <si>
+    <t>Check thesidenav  HTML on shared/components/sidenav</t>
+  </si>
+  <si>
+    <t>Check the HTML of collab-request on modules/collab-request and the sign up service under /shared/services</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D21A5E-90CB-4701-BBE6-21A5C6A351E9}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1322,7 +1343,9 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1345,7 +1368,9 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -1368,7 +1393,9 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1391,7 +1418,9 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -1414,7 +1443,9 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1437,7 +1468,9 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1460,7 +1493,9 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -1564,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3408B85D-BFD8-4636-8CFB-25D882D67D53}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1630,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1851,7 +1886,9 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1874,7 +1911,9 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -1897,7 +1936,9 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -1943,7 +1984,9 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1966,7 +2009,9 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1989,7 +2034,9 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -2012,7 +2059,9 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2035,7 +2084,9 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -2081,7 +2132,9 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
@@ -2098,7 +2151,7 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:14" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2111,7 +2164,9 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
@@ -2128,7 +2183,7 @@
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2141,7 +2196,9 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
@@ -2171,7 +2228,9 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>129</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2199,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E69884-4FC3-4D83-B715-DD3CD08FA9F9}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2486,7 +2545,9 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -2509,7 +2570,9 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -2532,7 +2595,9 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -2555,7 +2620,9 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -2578,7 +2645,9 @@
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -2601,7 +2670,9 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2624,7 +2695,9 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -2647,7 +2720,9 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2670,7 +2745,9 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -2693,7 +2770,9 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>127</v>
+      </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -2716,7 +2795,9 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="13" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
@@ -2792,8 +2873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A361A4EA-279C-4E05-93CE-E0409D17F8A7}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3077,7 +3158,9 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="13" t="s">
+        <v>124</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -3099,7 +3182,9 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="13" t="s">
+        <v>130</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -3268,7 +3353,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
